--- a/experimentData/实验数据.xlsx
+++ b/experimentData/实验数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <r>
       <t>Task</t>
@@ -166,15 +166,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>11g</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>key-value</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>objectFile</t>
+    <t>task100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载性能测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -182,15 +182,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>29s</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3min</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7min</t>
+    <t>objectFile</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +231,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +256,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99CC99"/>
         <bgColor rgb="FF99CC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -339,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,6 +389,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -972,11 +980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="85531824"/>
-        <c:axId val="85532384"/>
+        <c:axId val="606597360"/>
+        <c:axId val="606597920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85531824"/>
+        <c:axId val="606597360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,12 +1113,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85532384"/>
+        <c:crossAx val="606597920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85532384"/>
+        <c:axId val="606597920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1243,719 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85531824"/>
+        <c:crossAx val="606597360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>加载方式比对</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5965601984267165E-2"/>
+          <c:y val="0.17685185185185184"/>
+          <c:w val="0.59110619855586066"/>
+          <c:h val="0.61757728200641582"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>key_value图片描述加载方式</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>binaryFile加载方式</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>objectFile加载方式</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="740492144"/>
+        <c:axId val="740492704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="740492144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+                  <a:t>Size of imgeSet(M)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740492704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="740492704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+                  <a:t>runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0"/>
+                  <a:t> of Load(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740492144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1494,11 +2214,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="728277696"/>
-        <c:axId val="728278256"/>
+        <c:axId val="606600720"/>
+        <c:axId val="606601280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="728277696"/>
+        <c:axId val="606600720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +2318,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728278256"/>
+        <c:crossAx val="606601280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +2326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="728278256"/>
+        <c:axId val="606601280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +2449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728277696"/>
+        <c:crossAx val="606600720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1956,11 +2676,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="728280496"/>
-        <c:axId val="728281056"/>
+        <c:axId val="606603520"/>
+        <c:axId val="606604080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="728280496"/>
+        <c:axId val="606603520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2780,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728281056"/>
+        <c:crossAx val="606604080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2068,7 +2788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="728281056"/>
+        <c:axId val="606604080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2911,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728280496"/>
+        <c:crossAx val="606603520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2434,11 +3154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="728283296"/>
-        <c:axId val="728283856"/>
+        <c:axId val="726701808"/>
+        <c:axId val="726702368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="728283296"/>
+        <c:axId val="726701808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,12 +3280,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728283856"/>
+        <c:crossAx val="726702368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="728283856"/>
+        <c:axId val="726702368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +3414,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728283296"/>
+        <c:crossAx val="726701808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3000,11 +3720,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="728286656"/>
-        <c:axId val="728287216"/>
+        <c:axId val="726705168"/>
+        <c:axId val="726705728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="728286656"/>
+        <c:axId val="726705168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3839,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728287216"/>
+        <c:crossAx val="726705728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3127,7 +3847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="728287216"/>
+        <c:axId val="726705728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,7 +3966,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728286656"/>
+        <c:crossAx val="726705168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3718,11 +4438,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="728290576"/>
-        <c:axId val="728291136"/>
+        <c:axId val="726709088"/>
+        <c:axId val="726709648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="728290576"/>
+        <c:axId val="726709088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,12 +4571,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728291136"/>
+        <c:crossAx val="726709648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="728291136"/>
+        <c:axId val="726709648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,7 +4705,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728290576"/>
+        <c:crossAx val="726709088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4354,11 +5074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88893168"/>
-        <c:axId val="88893728"/>
+        <c:axId val="726713008"/>
+        <c:axId val="726713568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88893168"/>
+        <c:axId val="726713008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4479,12 +5199,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88893728"/>
+        <c:crossAx val="726713568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88893728"/>
+        <c:axId val="726713568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4605,7 +5325,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88893168"/>
+        <c:crossAx val="726713008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4992,11 +5712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88896528"/>
-        <c:axId val="88897088"/>
+        <c:axId val="726716368"/>
+        <c:axId val="726716928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88896528"/>
+        <c:axId val="726716368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5124,12 +5844,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88897088"/>
+        <c:crossAx val="726716928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88897088"/>
+        <c:axId val="726716928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5250,7 +5970,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88896528"/>
+        <c:crossAx val="726716368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5613,11 +6333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88899888"/>
-        <c:axId val="88900448"/>
+        <c:axId val="727624336"/>
+        <c:axId val="727624896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88899888"/>
+        <c:axId val="727624336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,12 +6466,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88900448"/>
+        <c:crossAx val="727624896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88900448"/>
+        <c:axId val="727624896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,7 +6600,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88899888"/>
+        <c:crossAx val="727624336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5962,6 +6682,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6837,6 +7597,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11203,6 +12479,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -11492,8 +12803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12068,10 +13379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12082,33 +13393,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>28</v>
       </c>
+      <c r="D2" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="15" t="s">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="5">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="B3" s="16">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="5">
+        <v>70</v>
+      </c>
+      <c r="B4" s="16">
+        <v>6</v>
+      </c>
+      <c r="C4" s="16">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="5">
+        <v>140</v>
+      </c>
+      <c r="B5" s="16">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="5">
+        <v>280</v>
+      </c>
+      <c r="B6" s="16">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="5">
+        <v>1024</v>
+      </c>
+      <c r="B7" s="16">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16">
         <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="5">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="16">
+        <v>9</v>
+      </c>
+      <c r="C8" s="16">
+        <v>33</v>
+      </c>
+      <c r="D8" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="8">
+        <v>4096</v>
+      </c>
+      <c r="B9" s="16">
+        <v>10</v>
+      </c>
+      <c r="C9" s="16">
+        <v>59</v>
+      </c>
+      <c r="D9" s="16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="5">
+        <v>11264</v>
+      </c>
+      <c r="B10" s="16">
+        <v>52</v>
+      </c>
+      <c r="C10" s="16">
+        <v>102</v>
+      </c>
+      <c r="D10" s="16">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/experimentData/实验数据.xlsx
+++ b/experimentData/实验数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <r>
       <t>Task</t>
@@ -185,6 +185,30 @@
     <t>objectFile</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>task5000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPartition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashPartition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceByKey性能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.8G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -340,11 +364,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,6 +430,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,11 +1029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="606597360"/>
-        <c:axId val="606597920"/>
+        <c:axId val="614841744"/>
+        <c:axId val="614842304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="606597360"/>
+        <c:axId val="614841744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,12 +1162,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606597920"/>
+        <c:crossAx val="614842304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606597920"/>
+        <c:axId val="614842304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1292,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606597360"/>
+        <c:crossAx val="614841744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1501,7 +1550,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,11 +1759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="740492144"/>
-        <c:axId val="740492704"/>
+        <c:axId val="738105904"/>
+        <c:axId val="738106464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="740492144"/>
+        <c:axId val="738105904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,12 +1881,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="740492704"/>
+        <c:crossAx val="738106464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="740492704"/>
+        <c:axId val="738106464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,9 +2004,633 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="740492144"/>
+        <c:crossAx val="738105904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>不同分区策略收集时间对比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MyPartition</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$16:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.4G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>169.08699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383.53199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HashPartition</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$16:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.4G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$16:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>199.74199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>546.00699999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="477"/>
+        <c:overlap val="-27"/>
+        <c:axId val="748909456"/>
+        <c:axId val="739007296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="748909456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Size of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> ImageSet</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739007296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="739007296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of ReduceByKey</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+                  <a:t>）</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748909456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2214,11 +2887,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="606600720"/>
-        <c:axId val="606601280"/>
+        <c:axId val="614845104"/>
+        <c:axId val="614845664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="606600720"/>
+        <c:axId val="614845104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2991,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606601280"/>
+        <c:crossAx val="614845664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2326,7 +2999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="606601280"/>
+        <c:axId val="614845664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +3122,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606600720"/>
+        <c:crossAx val="614845104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2676,11 +3349,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="606603520"/>
-        <c:axId val="606604080"/>
+        <c:axId val="614847904"/>
+        <c:axId val="614848464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="606603520"/>
+        <c:axId val="614847904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2780,7 +3453,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606604080"/>
+        <c:crossAx val="614848464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2788,7 +3461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="606604080"/>
+        <c:axId val="614848464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2911,7 +3584,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606603520"/>
+        <c:crossAx val="614847904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3154,11 +3827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="726701808"/>
-        <c:axId val="726702368"/>
+        <c:axId val="614850704"/>
+        <c:axId val="614851264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="726701808"/>
+        <c:axId val="614850704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,12 +3953,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726702368"/>
+        <c:crossAx val="614851264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="726702368"/>
+        <c:axId val="614851264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,7 +4087,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726701808"/>
+        <c:crossAx val="614850704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3720,11 +4393,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="726705168"/>
-        <c:axId val="726705728"/>
+        <c:axId val="614854064"/>
+        <c:axId val="614854624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="726705168"/>
+        <c:axId val="614854064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3839,7 +4512,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726705728"/>
+        <c:crossAx val="614854624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3847,7 +4520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="726705728"/>
+        <c:axId val="614854624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,7 +4639,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726705168"/>
+        <c:crossAx val="614854064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4438,11 +5111,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="726709088"/>
-        <c:axId val="726709648"/>
+        <c:axId val="738091344"/>
+        <c:axId val="738091904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="726709088"/>
+        <c:axId val="738091344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,12 +5244,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726709648"/>
+        <c:crossAx val="738091904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="726709648"/>
+        <c:axId val="738091904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,7 +5378,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726709088"/>
+        <c:crossAx val="738091344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5074,11 +5747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="726713008"/>
-        <c:axId val="726713568"/>
+        <c:axId val="738095264"/>
+        <c:axId val="738095824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="726713008"/>
+        <c:axId val="738095264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5199,12 +5872,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726713568"/>
+        <c:crossAx val="738095824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="726713568"/>
+        <c:axId val="738095824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,7 +5998,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726713008"/>
+        <c:crossAx val="738095264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5712,11 +6385,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="726716368"/>
-        <c:axId val="726716928"/>
+        <c:axId val="738098624"/>
+        <c:axId val="738099184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="726716368"/>
+        <c:axId val="738098624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5844,12 +6517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726716928"/>
+        <c:crossAx val="738099184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="726716928"/>
+        <c:axId val="738099184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5970,7 +6643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726716368"/>
+        <c:crossAx val="738098624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6333,11 +7006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="727624336"/>
-        <c:axId val="727624896"/>
+        <c:axId val="738101984"/>
+        <c:axId val="738102544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="727624336"/>
+        <c:axId val="738101984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6466,12 +7139,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727624896"/>
+        <c:crossAx val="738102544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="727624896"/>
+        <c:axId val="738102544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6600,7 +7273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727624336"/>
+        <c:crossAx val="738101984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6722,6 +7395,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8113,6 +8826,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -12483,16 +13699,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12506,6 +13722,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12803,7 +14049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A11"/>
     </sheetView>
   </sheetViews>
@@ -13379,26 +14625,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="16" t="s">
@@ -13517,7 +14764,7 @@
         <v>11264</v>
       </c>
       <c r="B10" s="16">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C10" s="16">
         <v>102</v>
@@ -13526,9 +14773,56 @@
         <v>234</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="15">
+        <v>169.08699999999999</v>
+      </c>
+      <c r="C16" s="15">
+        <v>199.74199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="17">
+        <v>383.53199999999998</v>
+      </c>
+      <c r="C17" s="17">
+        <v>546.00699999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experimentData/实验数据.xlsx
+++ b/experimentData/实验数据.xlsx
@@ -4,13 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -449,74 +457,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -577,7 +517,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -974,12 +913,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="100436224"/>
-        <c:axId val="100450688"/>
+        <c:axId val="52736384"/>
+        <c:axId val="52741248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100436224"/>
+        <c:axId val="52736384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +978,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1085,12 +1022,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100450688"/>
+        <c:crossAx val="52741248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100450688"/>
+        <c:axId val="52741248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1084,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1192,7 +1128,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100436224"/>
+        <c:crossAx val="52736384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1206,7 +1142,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1265,7 +1200,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1304,7 +1239,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1319,9 +1253,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5965601984267179E-2"/>
+          <c:x val="9.5965601984267568E-2"/>
           <c:y val="0.17685185185185184"/>
-          <c:w val="0.59110619855586055"/>
+          <c:w val="0.591106198555857"/>
           <c:h val="0.61757728200641582"/>
         </c:manualLayout>
       </c:layout>
@@ -1619,12 +1553,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="106582784"/>
-        <c:axId val="106584704"/>
+        <c:axId val="79761792"/>
+        <c:axId val="79764480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106582784"/>
+        <c:axId val="79761792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1621,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.30229535345708414"/>
-              <c:y val="0.90668963254593171"/>
+              <c:y val="0.90668963254593615"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -1735,12 +1668,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106584704"/>
+        <c:crossAx val="79764480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106584704"/>
+        <c:axId val="79764480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1732,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1844,7 +1776,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106582784"/>
+        <c:crossAx val="79761792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1858,7 +1790,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1917,7 +1848,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1956,7 +1887,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2176,11 +2106,11 @@
         </c:dLbls>
         <c:gapWidth val="477"/>
         <c:overlap val="-27"/>
-        <c:axId val="106656128"/>
-        <c:axId val="106658048"/>
+        <c:axId val="80088448"/>
+        <c:axId val="80092160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106656128"/>
+        <c:axId val="80088448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2155,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2270,14 +2199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106658048"/>
+        <c:crossAx val="80092160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106658048"/>
+        <c:axId val="80092160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,7 +2286,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2396,7 +2324,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106656128"/>
+        <c:crossAx val="80088448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2410,7 +2338,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2469,13 +2396,680 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>加载方式比对</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44723485996725121"/>
+          <c:y val="5.54016298257946E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5965601984267568E-2"/>
+          <c:y val="0.17685185185185184"/>
+          <c:w val="0.60328281129427974"/>
+          <c:h val="0.61757728200641582"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>key_value图片描述加载方式</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>binaryFile加载方式</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>objectFile加载方式</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="85086208"/>
+        <c:axId val="85088896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85086208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Size of imgeSet(M)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.30229535345708414"/>
+              <c:y val="0.90668963254593649"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85088896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85088896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> of Load(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85086208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67904765298551684"/>
+          <c:y val="0.43338790127284177"/>
+          <c:w val="0.32095234701448366"/>
+          <c:h val="0.2369892825896778"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2499,16 +3093,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>key-value</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
-              <a:t>不同分割大小的提取速度</a:t>
+              <a:t>的序列化预处理时间和提取时间比例</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2521,10 +3121,13 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>预处理时间</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2535,91 +3138,160 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$14:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10*10</c:v>
+                  <c:v>0.48799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50*50</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100*100</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200*200</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300*300</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400*400</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>500*500</c:v>
+                  <c:v>4096</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>600*600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000*1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>no segmentation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$23</c:f>
+              <c:f>Sheet1!$B$26:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>14.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228</c:v>
+                  <c:v>11.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>264</c:v>
+                  <c:v>26.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>306</c:v>
+                  <c:v>68.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310</c:v>
+                  <c:v>116.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1800</c:v>
+                  <c:v>300.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="100295424"/>
-        <c:axId val="100297344"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>提取总时间</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1319.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="88915968"/>
+        <c:axId val="88932736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100295424"/>
+        <c:axId val="88915968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,16 +3320,39 @@
                     <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                     <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                   </a:rPr>
-                  <a:t>width*height</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US">
-                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-                </a:endParaRPr>
+                  <a:t>size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> of image set</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2702,14 +3397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100297344"/>
+        <c:crossAx val="88932736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100297344"/>
+        <c:axId val="88932736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2742,8 +3437,8 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
@@ -2752,14 +3447,7 @@
                     <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                     <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                   </a:rPr>
-                  <a:t>running</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
-                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-                  </a:rPr>
-                  <a:t> time of extraction</a:t>
+                  <a:t>running time</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US">
@@ -2785,7 +3473,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2809,7 +3496,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2824,7 +3511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100295424"/>
+        <c:crossAx val="88915968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2836,6 +3523,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41214262063395934"/>
+          <c:y val="0.89316893771512096"/>
+          <c:w val="0.27417613567534832"/>
+          <c:h val="7.0902918572304213E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
@@ -2866,13 +3593,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
   <c:chart>
@@ -2890,19 +3617,21 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-              <a:t>不同分割大小的提取精度</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>不同分割大小的提取速度</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2968,52 +3697,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:f>Sheet1!$B$14:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12195121951219512</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12195121951219512</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1463414634146339E-2</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4390243902439025E-2</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8292682926829267E-2</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8292682926829267E-2</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8292682926829267E-2</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8292682926829267E-2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8292682926829267E-2</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8292682926829267E-2</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="100326016"/>
-        <c:axId val="100467456"/>
+        <c:axId val="89069824"/>
+        <c:axId val="89072000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100326016"/>
+        <c:axId val="89069824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,26 +3760,25 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-ea"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN">
-                    <a:latin typeface="+mn-ea"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                   </a:rPr>
                   <a:t>width*height</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US">
-                  <a:latin typeface="+mn-ea"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3096,14 +3823,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100467456"/>
+        <c:crossAx val="89072000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100467456"/>
+        <c:axId val="89072000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3146,14 +3873,14 @@
                     <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                     <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                   </a:rPr>
-                  <a:t>error</a:t>
+                  <a:t>running</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
                     <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                     <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                   </a:rPr>
-                  <a:t> of percent</a:t>
+                  <a:t> time of extraction</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US">
@@ -3179,7 +3906,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3203,7 +3929,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3218,7 +3944,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100326016"/>
+        <c:crossAx val="89069824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3260,7 +3986,3785 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+              <a:t>不同分割大小的提取精度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$14:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10*10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50*50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100*100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200*200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300*300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400*400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500*500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600*600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000*1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>no segmentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1463414634146339E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4390243902439025E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="89194880"/>
+        <c:axId val="89197184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89194880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>width*height</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89197184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89197184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> of percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89194880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0">
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>不同分区策略收集时间对比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MyPartition</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$16:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.4G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>169.08699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383.53199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HashPartition</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$16:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.4G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$16:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>199.74199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>546.00699999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="477"/>
+        <c:overlap val="-27"/>
+        <c:axId val="89521152"/>
+        <c:axId val="89588480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89521152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Size of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> ImageSet</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89588480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89588480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> of ReduceByKey</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89521152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>四种方式的特征提取速度比较</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>spark &amp; key-value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1319.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>spark &amp; unsequence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>523.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>770.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1566.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4004.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>gpu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.985999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>817.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1434.8309999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2671.1860000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7388.2280000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>single</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470.71199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>943.27200000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1846.548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6095.5039999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14838.436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28020.036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="89748224"/>
+        <c:axId val="89750912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89748224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of image set</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89750912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89750912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>running time of extraction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89748224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+                <a:effectLst/>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t> of speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28836899889426837"/>
+          <c:y val="2.9962529144162767E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9673770241270707E-2"/>
+          <c:y val="0.158445746883868"/>
+          <c:w val="0.6824930700680476"/>
+          <c:h val="0.61020607496176538"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>single/spark</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.44072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.506964285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.857382106654915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.646674311926606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.614023321393185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.247299620664247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.239367822626491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>single/gpu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.062283737024224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.463521984617437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.612393681652492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.88189050621722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4602893300369626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.341591448749018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.489736019880308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="134921216"/>
+        <c:axId val="134965120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="134921216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> of image set</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.28420949723181482"/>
+              <c:y val="0.87025635067011664"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134965120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134965120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.1449884353942421E-3"/>
+              <c:y val="0.3411127776621094"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134921216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72868198416446062"/>
+          <c:y val="0.18649163504392119"/>
+          <c:w val="0.27131801583553988"/>
+          <c:h val="0.21020431989320049"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>comparision</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" baseline="0">
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t> of spark and GPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11604691947443221"/>
+          <c:y val="0.11247174103237099"/>
+          <c:w val="0.66993579475152565"/>
+          <c:h val="0.72894377998668569"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>spark</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1319.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.985999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>817.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1434.8309999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2671.1860000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7388.2280000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GPU &amp; no store</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.293999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.769000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330.02499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>587.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1093.0830000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2998.9369999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="138613120"/>
+        <c:axId val="138615808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="138613120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> of image set</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32856632739912101"/>
+              <c:y val="0.92177777777777781"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138615808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="138615808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> time of extraction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138613120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76117148252396105"/>
+          <c:y val="0.27285016168559073"/>
+          <c:w val="0.23882851747603945"/>
+          <c:h val="0.25186351706036747"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>不同分割大小的提取速度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$14:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10*10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50*50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100*100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200*200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300*300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400*400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500*500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600*600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000*1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>no segmentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="52862976"/>
+        <c:axId val="52865664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52862976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>width*height</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52865664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52865664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> time of extraction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52862976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+              <a:t>不同分割大小的提取精度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$14:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10*10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50*50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100*100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200*200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300*300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400*400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500*500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600*600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000*1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>no segmentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1463414634146339E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4390243902439025E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8292682926829267E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="54616064"/>
+        <c:axId val="54625792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="54616064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>width*height</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54625792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54625792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t> of percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54616064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3314,8 +7818,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38304093567251474"/>
-          <c:y val="3.3898305084745776E-2"/>
+          <c:x val="0.38304093567251696"/>
+          <c:y val="3.3898305084745811E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3428,12 +7932,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="100524800"/>
-        <c:axId val="100526720"/>
+        <c:axId val="54791168"/>
+        <c:axId val="54880896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100524800"/>
+        <c:axId val="54791168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,7 +8002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3544,12 +8046,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100526720"/>
+        <c:crossAx val="54880896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100526720"/>
+        <c:axId val="54880896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3625,7 +8127,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3670,7 +8171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100524800"/>
+        <c:crossAx val="54791168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3712,7 +8213,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3752,7 +8253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3930,13 +8430,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:overlap val="100"/>
-        <c:axId val="101912576"/>
-        <c:axId val="101914496"/>
+        <c:axId val="54920704"/>
+        <c:axId val="54975872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101912576"/>
+        <c:axId val="54920704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,7 +8482,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4028,14 +8526,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101914496"/>
+        <c:crossAx val="54975872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101914496"/>
+        <c:axId val="54975872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,7 +8590,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4131,7 +8628,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101912576"/>
+        <c:crossAx val="54920704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4145,7 +8642,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4204,7 +8700,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4254,7 +8750,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4269,10 +8764,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1914260717410337E-2"/>
-          <c:y val="0.17291614058446783"/>
-          <c:w val="0.66993579475152532"/>
-          <c:h val="0.72894377998668547"/>
+          <c:x val="9.1914260717410365E-2"/>
+          <c:y val="0.17291614058447047"/>
+          <c:w val="0.66993579475152565"/>
+          <c:h val="0.72894377998668569"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4569,12 +9064,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="101950208"/>
-        <c:axId val="101952128"/>
+        <c:axId val="58164352"/>
+        <c:axId val="58166656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101950208"/>
+        <c:axId val="58164352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4635,7 +9129,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4680,12 +9173,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101952128"/>
+        <c:crossAx val="58166656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101952128"/>
+        <c:axId val="58166656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4746,7 +9239,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4791,7 +9283,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101950208"/>
+        <c:crossAx val="58164352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4810,9 +9302,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.76720466918704022"/>
-          <c:y val="0.42754630480578065"/>
-          <c:w val="0.23279533081295997"/>
-          <c:h val="0.20029807540734587"/>
+          <c:y val="0.42754630480578082"/>
+          <c:w val="0.23279533081296255"/>
+          <c:h val="0.20029807540734706"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -4873,7 +9365,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4913,7 +9405,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5117,12 +9608,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="102019456"/>
-        <c:axId val="102021376"/>
+        <c:axId val="58414592"/>
+        <c:axId val="58419072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102019456"/>
+        <c:axId val="58414592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5175,7 +9665,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5220,12 +9709,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102021376"/>
+        <c:crossAx val="58419072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102021376"/>
+        <c:axId val="58419072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5278,7 +9767,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5323,7 +9811,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102019456"/>
+        <c:crossAx val="58414592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5337,7 +9825,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5396,7 +9883,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5457,7 +9944,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5654,12 +10140,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="102080512"/>
-        <c:axId val="102082432"/>
+        <c:axId val="75437184"/>
+        <c:axId val="75473664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102080512"/>
+        <c:axId val="75437184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,7 +10205,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5765,12 +10249,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102082432"/>
+        <c:crossAx val="75473664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102082432"/>
+        <c:axId val="75473664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5820,8 +10304,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.0555555555555558E-2"/>
-              <c:y val="0.34491141732283481"/>
+              <c:x val="3.0555555555555582E-2"/>
+              <c:y val="0.34491141732283742"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -5868,7 +10352,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102080512"/>
+        <c:crossAx val="75437184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5882,7 +10366,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5941,7 +10424,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5982,7 +10465,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6189,12 +10671,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="102137216"/>
-        <c:axId val="102163968"/>
+        <c:axId val="75975296"/>
+        <c:axId val="78194560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102137216"/>
+        <c:axId val="75975296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6270,7 +10751,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6315,12 +10795,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102163968"/>
+        <c:crossAx val="78194560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102163968"/>
+        <c:axId val="78194560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6381,7 +10861,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6426,7 +10905,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102137216"/>
+        <c:crossAx val="75975296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6440,7 +10919,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6499,7 +10977,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6780,6 +11258,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6845,6 +11358,251 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47621</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123822</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -6853,7 +11611,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7132,7 +11890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
@@ -7703,6 +12461,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7912,4 +12684,114 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="9" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>